--- a/Test Data Driven/AI-Generated/TC19-Manage API Keys and Logout.xlsx
+++ b/Test Data Driven/AI-Generated/TC19-Manage API Keys and Logout.xlsx
@@ -449,7 +449,7 @@
     <col width="33" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="58" customWidth="1" min="4" max="4"/>
+    <col width="69" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -498,7 +498,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/createNewApiKey-test-data</t>
+          <t>Data Files/AI-Generated/Common/createApiKeyForIntegration-test-data</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC19-Manage API Keys and Logout.xlsx
+++ b/Test Data Driven/AI-Generated/TC19-Manage API Keys and Logout.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,51 +446,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>button_apiKeyManagement_trNthChild</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>button_apiKeyManagement_trNthChild_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>button_apiKeyManagement_trNthChild_2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>input_KeyName</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test Data Driven/AI-Generated/TC19-Manage API Keys and Logout.xlsx
+++ b/Test Data Driven/AI-Generated/TC19-Manage API Keys and Logout.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,18 +446,51 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>button_apiKeyManagement_trNthChild</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>button_apiKeyManagement_trNthChild_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>button_apiKeyManagement_trNthChild_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>input_KeyName</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
